--- a/ProyectoRata/Documentacion/TABLA DE JUEGO.xlsx
+++ b/ProyectoRata/Documentacion/TABLA DE JUEGO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>TIPO</t>
   </si>
@@ -48,45 +48,18 @@
     <t>ARAÑA</t>
   </si>
   <si>
-    <t>Tira veneno en un intervalo de 10 segundos, que te hace 0.5 de daño por 2 segundos con un máximo de 4s</t>
-  </si>
-  <si>
-    <t>Movimiento horizontal y vertical dentro de la TELA DE ARAÑA fuera, solo horizontal</t>
-  </si>
-  <si>
     <t>MOSQUITO</t>
   </si>
   <si>
-    <t>Ataca en área cercana a el, tiene animación de ataque</t>
-  </si>
-  <si>
-    <t>Movimiento horizontal y vertical (aéreo)</t>
-  </si>
-  <si>
     <t>COCODRILO</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Su “ataque” consiste en que si saltas en el momento equivocado, cierra la boca quitándote toda la vida</t>
-  </si>
-  <si>
-    <t>GATO</t>
-  </si>
-  <si>
-    <t>Te sigue cuando estás parado durante un tiempo y te ataca con un arañazo que te quita toda la vida, ataca en area</t>
-  </si>
-  <si>
-    <t>SEÑORA</t>
-  </si>
-  <si>
     <t>GATO DOMESTICO</t>
   </si>
   <si>
-    <t>A diferencia del gato normal, este intentará jugar contigo lanzandote con la pata para luego morderte (ataque letal)</t>
-  </si>
-  <si>
     <t>BABOSAS</t>
   </si>
   <si>
@@ -123,18 +96,6 @@
     <t>Casa</t>
   </si>
   <si>
-    <t>Horizontal (derecha a izquierda) y exclusivamente en el agua</t>
-  </si>
-  <si>
-    <t>Movimiento aleatorio (huye de la rata) pero la seguirá cuando ataque</t>
-  </si>
-  <si>
-    <t>Sigue a la rata hasta que la lanza y cuando la pierde de vista la buscará</t>
-  </si>
-  <si>
-    <t>Aterrorizada por la rata durante un intervalo de segundos , Tiene 3 ataques principales:  insecticida (ataque en area), fregona(objeto que te lanza), zapatilla (objeto que lanza) una vez que termina el ataque se repite el ciclo hasta que escapas</t>
-  </si>
-  <si>
     <t>EXPLICACIÓN</t>
   </si>
   <si>
@@ -177,9 +138,6 @@
     <t>VIDA (Puntos)</t>
   </si>
   <si>
-    <t>Movimiento por el nivel como el jugador (haciendo la Ruta perfecta)</t>
-  </si>
-  <si>
     <t>casa</t>
   </si>
   <si>
@@ -189,9 +147,6 @@
     <t>Velocidad</t>
   </si>
   <si>
-    <t>Inmortal</t>
-  </si>
-  <si>
     <t>Invisible</t>
   </si>
   <si>
@@ -225,10 +180,37 @@
     <t>Obtines un daño adicional de 1,5</t>
   </si>
   <si>
-    <t>Inmune</t>
-  </si>
-  <si>
-    <t>infinito al finalizar el juego</t>
+    <t xml:space="preserve"> ESPIRITU GATO</t>
+  </si>
+  <si>
+    <t>Vertical (arriba, abajo)</t>
+  </si>
+  <si>
+    <t>Ataca por proximidad, además de tirar gotas de acido al suelo, creando un charco que debes saltar</t>
+  </si>
+  <si>
+    <t>Ataca por proximidad</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>Ataca por proximidad en un intervalo de 20 segundos (cuando abre y cierra la boca)</t>
+  </si>
+  <si>
+    <t>Estatico, solo se mueve la boca (abriendose y cerrandose)</t>
+  </si>
+  <si>
+    <t>Te sigue cuando estás parado durante un tiempo y te ataca con un arañazo (ataque por proximidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigue al jugador desde el punto de inicio del nivel </t>
+  </si>
+  <si>
+    <t>te sigue en el nivel y si te ataca, te mata (ataque por proximidad)</t>
+  </si>
+  <si>
+    <t>Persigue el jugador por el nivel</t>
   </si>
 </sst>
 </file>
@@ -379,11 +361,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +671,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I4:I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -714,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>4</v>
@@ -723,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1">
@@ -743,149 +725,130 @@
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
-        <v>0.5</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="44.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="69.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="46.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -921,94 +884,94 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6">
         <v>0.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="70.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="71.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6">
         <v>0.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="103.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="69.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1"/>
@@ -1022,7 +985,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1044,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -1061,96 +1024,90 @@
     </row>
     <row r="2" spans="1:7" ht="92.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="87" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="74.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ProyectoRata/Documentacion/TABLA DE JUEGO.xlsx
+++ b/ProyectoRata/Documentacion/TABLA DE JUEGO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ENEMIGOS" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,6 +365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -685,7 +688,7 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -707,8 +710,9 @@
       <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1">
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="48" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -727,8 +731,9 @@
       <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="44.25" customHeight="1">
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="44.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -748,7 +753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45.75" customHeight="1">
+    <row r="4" spans="1:8" ht="45.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -768,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45.75" customHeight="1">
+    <row r="5" spans="1:8" ht="45.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -788,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="44.25" customHeight="1">
+    <row r="6" spans="1:8" ht="44.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -808,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="69.75" customHeight="1">
+    <row r="7" spans="1:8" ht="69.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -828,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1">
+    <row r="8" spans="1:8" ht="47.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -848,7 +853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.5" customHeight="1"/>
+    <row r="9" spans="1:8" ht="46.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -984,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
